--- a/Tables/tables_performance_functional.xlsx
+++ b/Tables/tables_performance_functional.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_t_vancan_uu_nl/Documents/Documents/AIRE/Appendix/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_CF335C0DE38F12F6591066BBD471F59B149F6923" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_CF335C0DE38F12F6591066BBD471F59B149F6923" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66450D64-0B8D-4B06-899F-41A5611EB863}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Specificity" sheetId="1" r:id="rId1"/>
-    <sheet name="Precision" sheetId="2" r:id="rId2"/>
-    <sheet name="Recall" sheetId="3" r:id="rId3"/>
+    <sheet name="Precision" sheetId="2" r:id="rId1"/>
+    <sheet name="Recall" sheetId="3" r:id="rId2"/>
+    <sheet name="Specificity" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -480,28 +480,28 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.56699999999999995</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="C4">
-        <v>0.255</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D4">
-        <v>0.27300000000000002</v>
+        <v>0.69</v>
       </c>
       <c r="E4">
-        <v>0.25</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>0.21199999999999999</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="G4">
-        <v>0.20899999999999999</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H4">
-        <v>0.29599999999999999</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="I4">
-        <v>0.26100000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -509,28 +509,28 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.47399999999999998</v>
+        <v>0.753</v>
       </c>
       <c r="C5">
-        <v>0.23899999999999999</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D5">
-        <v>0.38100000000000001</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="E5">
-        <v>0.25700000000000001</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F5">
-        <v>0.23499999999999999</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="G5">
-        <v>0.19700000000000001</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H5">
-        <v>0.34200000000000003</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="I5">
-        <v>0.23599999999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -538,28 +538,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.42699999999999999</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="C6">
-        <v>0.23799999999999999</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D6">
-        <v>0.38700000000000001</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="E6">
-        <v>0.216</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F6">
-        <v>0.216</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="G6">
-        <v>0.218</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H6">
-        <v>0.33600000000000002</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="I6">
-        <v>0.20300000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -567,28 +567,28 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.433</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="C7">
-        <v>0.23400000000000001</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D7">
-        <v>0.35599999999999998</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="E7">
-        <v>0.24099999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F7">
-        <v>0.223</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="G7">
-        <v>0.222</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H7">
-        <v>0.30199999999999999</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="I7">
-        <v>0.22700000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -596,28 +596,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.41399999999999998</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="C8">
-        <v>0.26600000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D8">
-        <v>0.35099999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="E8">
-        <v>0.219</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F8">
-        <v>0.254</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="G8">
-        <v>0.247</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H8">
-        <v>0.307</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="I8">
-        <v>0.24099999999999999</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -625,28 +625,28 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>0.441</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="C9">
-        <v>0.27400000000000002</v>
+        <v>0.06</v>
       </c>
       <c r="D9">
-        <v>0.35799999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="E9">
-        <v>0.20599999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F9">
-        <v>0.32300000000000001</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="G9">
-        <v>0.27800000000000002</v>
+        <v>4.7E-2</v>
       </c>
       <c r="H9">
-        <v>0.32900000000000001</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="I9">
-        <v>0.22500000000000001</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -654,28 +654,28 @@
         <v>64</v>
       </c>
       <c r="B10">
-        <v>0.378</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="C10">
-        <v>0.23300000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="D10">
-        <v>0.38200000000000001</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="E10">
-        <v>0.184</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F10">
-        <v>0.28100000000000003</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="G10">
-        <v>0.23499999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H10">
-        <v>0.316</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="I10">
-        <v>0.23200000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -690,10 +690,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -755,28 +757,28 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.78600000000000003</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C4">
-        <v>4.1000000000000002E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D4">
-        <v>0.69</v>
+        <v>0.995</v>
       </c>
       <c r="E4">
-        <v>2.1000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F4">
-        <v>0.66900000000000004</v>
+        <v>0.997</v>
       </c>
       <c r="G4">
-        <v>3.3000000000000002E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H4">
-        <v>0.70199999999999996</v>
+        <v>0.995</v>
       </c>
       <c r="I4">
-        <v>1.7000000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -784,28 +786,28 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.753</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="C5">
-        <v>5.2999999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D5">
-        <v>0.72599999999999998</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="F5">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G5">
         <v>2.7E-2</v>
       </c>
-      <c r="F5">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="G5">
-        <v>3.5000000000000003E-2</v>
-      </c>
       <c r="H5">
-        <v>0.71499999999999997</v>
+        <v>0.995</v>
       </c>
       <c r="I5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -813,25 +815,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.73299999999999998</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="C6">
-        <v>5.8999999999999997E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D6">
-        <v>0.72299999999999998</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="E6">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F6">
-        <v>0.66600000000000004</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="G6">
-        <v>3.5000000000000003E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H6">
-        <v>0.70899999999999996</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="I6">
         <v>2.5000000000000001E-2</v>
@@ -842,28 +844,28 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.73799999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="C7">
-        <v>5.0999999999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D7">
-        <v>0.71599999999999997</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F7">
-        <v>0.66900000000000004</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="G7">
-        <v>2.7E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H7">
-        <v>0.70199999999999996</v>
+        <v>0.995</v>
       </c>
       <c r="I7">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -871,28 +873,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.73199999999999998</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="C8">
-        <v>5.8999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D8">
-        <v>0.71</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="E8">
-        <v>8.9999999999999993E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F8">
-        <v>0.67700000000000005</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="G8">
-        <v>2.5000000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H8">
-        <v>0.70299999999999996</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="I8">
-        <v>2.9000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -900,28 +902,28 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>0.74399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C9">
-        <v>0.06</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D9">
-        <v>0.71</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="E9">
-        <v>8.9999999999999993E-3</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F9">
-        <v>0.69199999999999995</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="G9">
-        <v>4.7E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H9">
-        <v>0.70899999999999996</v>
+        <v>0.99</v>
       </c>
       <c r="I9">
-        <v>1.4E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -929,28 +931,28 @@
         <v>64</v>
       </c>
       <c r="B10">
-        <v>0.71699999999999997</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="C10">
-        <v>0.03</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D10">
-        <v>0.71399999999999997</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="E10">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F10">
-        <v>0.66200000000000003</v>
+        <v>0.875</v>
       </c>
       <c r="G10">
-        <v>3.9E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="H10">
-        <v>0.70299999999999996</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="I10">
-        <v>1.7000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1030,28 +1032,28 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.92500000000000004</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="C4">
-        <v>2.5999999999999999E-2</v>
+        <v>0.255</v>
       </c>
       <c r="D4">
-        <v>0.995</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="G4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="H4">
-        <v>0.995</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="I4">
-        <v>0.01</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1059,28 +1061,28 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.97599999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C5">
-        <v>2.7E-2</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="D5">
-        <v>0.99099999999999999</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="F5">
-        <v>0.97799999999999998</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="G5">
-        <v>2.7E-2</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="H5">
-        <v>0.995</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="I5">
-        <v>0.01</v>
+        <v>0.23599999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1088,28 +1090,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.96699999999999997</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="C6">
-        <v>4.1000000000000002E-2</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D6">
-        <v>0.98299999999999998</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="E6">
-        <v>1.7000000000000001E-2</v>
+        <v>0.216</v>
       </c>
       <c r="F6">
-        <v>0.97499999999999998</v>
+        <v>0.216</v>
       </c>
       <c r="G6">
-        <v>2.7E-2</v>
+        <v>0.218</v>
       </c>
       <c r="H6">
-        <v>0.98499999999999999</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="I6">
-        <v>2.5000000000000001E-2</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1117,28 +1119,28 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.98</v>
+        <v>0.433</v>
       </c>
       <c r="C7">
-        <v>2.8000000000000001E-2</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="D7">
-        <v>0.99</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="E7">
-        <v>1.4E-2</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="F7">
-        <v>0.97799999999999998</v>
+        <v>0.223</v>
       </c>
       <c r="G7">
-        <v>2.3E-2</v>
+        <v>0.222</v>
       </c>
       <c r="H7">
-        <v>0.995</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="I7">
-        <v>0.01</v>
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1146,28 +1148,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.96099999999999997</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="C8">
-        <v>4.4999999999999998E-2</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D8">
-        <v>0.97899999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="E8">
-        <v>1.7000000000000001E-2</v>
+        <v>0.219</v>
       </c>
       <c r="F8">
-        <v>0.96099999999999997</v>
+        <v>0.254</v>
       </c>
       <c r="G8">
-        <v>4.4999999999999998E-2</v>
+        <v>0.247</v>
       </c>
       <c r="H8">
-        <v>0.98499999999999999</v>
+        <v>0.307</v>
       </c>
       <c r="I8">
-        <v>1.7000000000000001E-2</v>
+        <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1175,28 +1177,28 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>0.96</v>
+        <v>0.441</v>
       </c>
       <c r="C9">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="D9">
-        <v>0.97299999999999998</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="E9">
-        <v>3.3000000000000002E-2</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="F9">
-        <v>0.91800000000000004</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="G9">
-        <v>8.5999999999999993E-2</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="H9">
-        <v>0.99</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="I9">
-        <v>0.02</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1204,28 +1206,28 @@
         <v>64</v>
       </c>
       <c r="B10">
-        <v>0.95299999999999996</v>
+        <v>0.378</v>
       </c>
       <c r="C10">
-        <v>5.0999999999999997E-2</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="D10">
-        <v>0.95899999999999996</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="E10">
-        <v>5.0999999999999997E-2</v>
+        <v>0.184</v>
       </c>
       <c r="F10">
-        <v>0.875</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="G10">
-        <v>9.7000000000000003E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="H10">
-        <v>0.97399999999999998</v>
+        <v>0.316</v>
       </c>
       <c r="I10">
-        <v>3.1E-2</v>
+        <v>0.23200000000000001</v>
       </c>
     </row>
   </sheetData>
